--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb3-Ephb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb3-Ephb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Efnb3</t>
   </si>
   <si>
     <t>Ephb1</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +540,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.2222225</v>
+        <v>0.3050205</v>
       </c>
       <c r="H2">
-        <v>0.444445</v>
+        <v>0.6100410000000001</v>
       </c>
       <c r="I2">
-        <v>0.2026211956904957</v>
+        <v>0.2027672883226855</v>
       </c>
       <c r="J2">
-        <v>0.1780425712608937</v>
+        <v>0.1761044107725932</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.8398145</v>
+        <v>1.058059</v>
       </c>
       <c r="N2">
-        <v>9.679629</v>
+        <v>2.116118</v>
       </c>
       <c r="O2">
-        <v>0.6099383944911378</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="P2">
-        <v>0.5555826661207054</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="Q2">
-        <v>1.07551567772625</v>
+        <v>0.3227296852095001</v>
       </c>
       <c r="R2">
-        <v>4.302062710905</v>
+        <v>1.290918740838</v>
       </c>
       <c r="S2">
-        <v>0.1235864467893356</v>
+        <v>0.1634738066073944</v>
       </c>
       <c r="T2">
-        <v>0.09891736642411299</v>
+        <v>0.1419778240735452</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
@@ -605,16 +602,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.2222225</v>
+        <v>0.3050205</v>
       </c>
       <c r="H3">
-        <v>0.444445</v>
+        <v>0.6100410000000001</v>
       </c>
       <c r="I3">
-        <v>0.2026211956904957</v>
+        <v>0.2027672883226855</v>
       </c>
       <c r="J3">
-        <v>0.1780425712608937</v>
+        <v>0.1761044107725932</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,163 +620,163 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.542474</v>
+        <v>0.254321</v>
       </c>
       <c r="N3">
-        <v>3.084948</v>
+        <v>0.508642</v>
       </c>
       <c r="O3">
-        <v>0.1943905319314043</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="P3">
-        <v>0.1770670791911279</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="Q3">
-        <v>0.342772428465</v>
+        <v>0.07757311858050002</v>
       </c>
       <c r="R3">
-        <v>1.37108971386</v>
+        <v>0.3102924743220001</v>
       </c>
       <c r="S3">
-        <v>0.03938764201085262</v>
+        <v>0.03929348171529107</v>
       </c>
       <c r="T3">
-        <v>0.03152547806484469</v>
+        <v>0.03412658669904805</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2222225</v>
+        <v>0.2207143333333333</v>
       </c>
       <c r="H4">
-        <v>0.444445</v>
+        <v>0.662143</v>
       </c>
       <c r="I4">
-        <v>0.2026211956904957</v>
+        <v>0.1467234066692216</v>
       </c>
       <c r="J4">
-        <v>0.1780425712608937</v>
+        <v>0.1911450260920121</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.542577333333333</v>
+        <v>1.058059</v>
       </c>
       <c r="N4">
-        <v>4.627732</v>
+        <v>2.116118</v>
       </c>
       <c r="O4">
-        <v>0.194403554531223</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="P4">
-        <v>0.2656184118887309</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="Q4">
-        <v>0.3427953914566667</v>
+        <v>0.2335287868123334</v>
       </c>
       <c r="R4">
-        <v>2.05677234874</v>
+        <v>1.401172720874</v>
       </c>
       <c r="S4">
-        <v>0.0393902806655989</v>
+        <v>0.1182904501265106</v>
       </c>
       <c r="T4">
-        <v>0.04729138502690478</v>
+        <v>0.154103777230595</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2222225</v>
+        <v>0.2207143333333333</v>
       </c>
       <c r="H5">
-        <v>0.444445</v>
+        <v>0.662143</v>
       </c>
       <c r="I5">
-        <v>0.2026211956904957</v>
+        <v>0.1467234066692216</v>
       </c>
       <c r="J5">
-        <v>0.1780425712608937</v>
+        <v>0.1911450260920121</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01005766666666667</v>
+        <v>0.254321</v>
       </c>
       <c r="N5">
-        <v>0.030173</v>
+        <v>0.508642</v>
       </c>
       <c r="O5">
-        <v>0.001267519046234871</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="P5">
-        <v>0.001731842799435809</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="Q5">
-        <v>0.002235039830833333</v>
+        <v>0.05613228996766667</v>
       </c>
       <c r="R5">
-        <v>0.013410238985</v>
+        <v>0.336793739806</v>
       </c>
       <c r="S5">
-        <v>0.0002568262247085864</v>
+        <v>0.02843295654271103</v>
       </c>
       <c r="T5">
-        <v>0.0003083417450312157</v>
+        <v>0.03704124886141713</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.2207143333333333</v>
+        <v>0.06966766666666667</v>
       </c>
       <c r="H6">
-        <v>0.662143</v>
+        <v>0.209003</v>
       </c>
       <c r="I6">
-        <v>0.2012460580095654</v>
+        <v>0.04631270309296832</v>
       </c>
       <c r="J6">
-        <v>0.2652513635261999</v>
+        <v>0.06033422370742998</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,39 +806,39 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.8398145</v>
+        <v>1.058059</v>
       </c>
       <c r="N6">
-        <v>9.679629</v>
+        <v>2.116118</v>
       </c>
       <c r="O6">
-        <v>0.6099383944911378</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="P6">
-        <v>0.5555826661207054</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="Q6">
-        <v>1.0682164308245</v>
+        <v>0.07371250172566668</v>
       </c>
       <c r="R6">
-        <v>6.409298584947001</v>
+        <v>0.442275010354</v>
       </c>
       <c r="S6">
-        <v>0.1227476975200247</v>
+        <v>0.03733794504780854</v>
       </c>
       <c r="T6">
-        <v>0.1473690597400386</v>
+        <v>0.04864228988681606</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -853,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.2207143333333333</v>
+        <v>0.06966766666666667</v>
       </c>
       <c r="H7">
-        <v>0.662143</v>
+        <v>0.209003</v>
       </c>
       <c r="I7">
-        <v>0.2012460580095654</v>
+        <v>0.04631270309296832</v>
       </c>
       <c r="J7">
-        <v>0.2652513635261999</v>
+        <v>0.06033422370742998</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,184 +868,184 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.542474</v>
+        <v>0.254321</v>
       </c>
       <c r="N7">
-        <v>3.084948</v>
+        <v>0.508642</v>
       </c>
       <c r="O7">
-        <v>0.1943905319314043</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="P7">
-        <v>0.1770670791911279</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="Q7">
-        <v>0.340446120594</v>
+        <v>0.01771795065433333</v>
       </c>
       <c r="R7">
-        <v>2.042676723564</v>
+        <v>0.106307703926</v>
       </c>
       <c r="S7">
-        <v>0.03912032826557765</v>
+        <v>0.008974758045159782</v>
       </c>
       <c r="T7">
-        <v>0.04696728419104829</v>
+        <v>0.01169193382061392</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2207143333333333</v>
+        <v>0.7437579999999999</v>
       </c>
       <c r="H8">
-        <v>0.662143</v>
+        <v>1.487516</v>
       </c>
       <c r="I8">
-        <v>0.2012460580095654</v>
+        <v>0.4944251052906407</v>
       </c>
       <c r="J8">
-        <v>0.2652513635261999</v>
+        <v>0.4294106932071856</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.542577333333333</v>
+        <v>1.058059</v>
       </c>
       <c r="N8">
-        <v>4.627732</v>
+        <v>2.116118</v>
       </c>
       <c r="O8">
-        <v>0.194403554531223</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="P8">
-        <v>0.2656184118887309</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="Q8">
-        <v>0.3404689277417778</v>
+        <v>0.7869398457219999</v>
       </c>
       <c r="R8">
-        <v>3.064220349676</v>
+        <v>3.147759382888</v>
       </c>
       <c r="S8">
-        <v>0.03912294901245621</v>
+        <v>0.398612393116864</v>
       </c>
       <c r="T8">
-        <v>0.07045564593114965</v>
+        <v>0.3461968702998381</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2207143333333333</v>
+        <v>0.7437579999999999</v>
       </c>
       <c r="H9">
-        <v>0.662143</v>
+        <v>1.487516</v>
       </c>
       <c r="I9">
-        <v>0.2012460580095654</v>
+        <v>0.4944251052906407</v>
       </c>
       <c r="J9">
-        <v>0.2652513635261999</v>
+        <v>0.4294106932071856</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.01005766666666667</v>
+        <v>0.254321</v>
       </c>
       <c r="N9">
-        <v>0.030173</v>
+        <v>0.508642</v>
       </c>
       <c r="O9">
-        <v>0.001267519046234871</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="P9">
-        <v>0.001731842799435809</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="Q9">
-        <v>0.002219871193222223</v>
+        <v>0.189153278318</v>
       </c>
       <c r="R9">
-        <v>0.019978840739</v>
+        <v>0.756613113272</v>
       </c>
       <c r="S9">
-        <v>0.0002550832115068119</v>
+        <v>0.09581271217377667</v>
       </c>
       <c r="T9">
-        <v>0.0004593736639633796</v>
+        <v>0.08321382290734744</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.08209333333333334</v>
+        <v>0.165128</v>
       </c>
       <c r="H10">
-        <v>0.24628</v>
+        <v>0.495384</v>
       </c>
       <c r="I10">
-        <v>0.07485222854669725</v>
+        <v>0.1097714966244839</v>
       </c>
       <c r="J10">
-        <v>0.09865860668954067</v>
+        <v>0.1430056462207791</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,60 +1054,60 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.8398145</v>
+        <v>1.058059</v>
       </c>
       <c r="N10">
-        <v>9.679629</v>
+        <v>2.116118</v>
       </c>
       <c r="O10">
-        <v>0.6099383944911378</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="P10">
-        <v>0.5555826661207054</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="Q10">
-        <v>0.39731650502</v>
+        <v>0.174715166552</v>
       </c>
       <c r="R10">
-        <v>2.38389903012</v>
+        <v>1.048290999312</v>
       </c>
       <c r="S10">
-        <v>0.04565524810385624</v>
+        <v>0.08849930656288944</v>
       </c>
       <c r="T10">
-        <v>0.05481301174032906</v>
+        <v>0.1152931399706726</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.08209333333333334</v>
+        <v>0.165128</v>
       </c>
       <c r="H11">
-        <v>0.24628</v>
+        <v>0.495384</v>
       </c>
       <c r="I11">
-        <v>0.07485222854669725</v>
+        <v>0.1097714966244839</v>
       </c>
       <c r="J11">
-        <v>0.09865860668954067</v>
+        <v>0.1430056462207791</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,400 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.542474</v>
+        <v>0.254321</v>
       </c>
       <c r="N11">
-        <v>3.084948</v>
+        <v>0.508642</v>
       </c>
       <c r="O11">
-        <v>0.1943905319314043</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="P11">
-        <v>0.1770670791911279</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="Q11">
-        <v>0.12662683224</v>
+        <v>0.04199551808800001</v>
       </c>
       <c r="R11">
-        <v>0.7597609934400001</v>
+        <v>0.251973108528</v>
       </c>
       <c r="S11">
-        <v>0.01455056452344352</v>
+        <v>0.02127219006159449</v>
       </c>
       <c r="T11">
-        <v>0.01746919132358324</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.08209333333333334</v>
-      </c>
-      <c r="H12">
-        <v>0.24628</v>
-      </c>
-      <c r="I12">
-        <v>0.07485222854669725</v>
-      </c>
-      <c r="J12">
-        <v>0.09865860668954067</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1.542577333333333</v>
-      </c>
-      <c r="N12">
-        <v>4.627732</v>
-      </c>
-      <c r="O12">
-        <v>0.194403554531223</v>
-      </c>
-      <c r="P12">
-        <v>0.2656184118887309</v>
-      </c>
-      <c r="Q12">
-        <v>0.1266353152177778</v>
-      </c>
-      <c r="R12">
-        <v>1.13971783696</v>
-      </c>
-      <c r="S12">
-        <v>0.01455153929406143</v>
-      </c>
-      <c r="T12">
-        <v>0.02620554242803071</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.08209333333333334</v>
-      </c>
-      <c r="H13">
-        <v>0.24628</v>
-      </c>
-      <c r="I13">
-        <v>0.07485222854669725</v>
-      </c>
-      <c r="J13">
-        <v>0.09865860668954067</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.01005766666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.030173</v>
-      </c>
-      <c r="O13">
-        <v>0.001267519046234871</v>
-      </c>
-      <c r="P13">
-        <v>0.001731842799435809</v>
-      </c>
-      <c r="Q13">
-        <v>0.0008256673822222224</v>
-      </c>
-      <c r="R13">
-        <v>0.007431006440000001</v>
-      </c>
-      <c r="S13">
-        <v>9.487662533606431E-05</v>
-      </c>
-      <c r="T13">
-        <v>0.0001708611975976506</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.5717085</v>
-      </c>
-      <c r="H14">
-        <v>1.143417</v>
-      </c>
-      <c r="I14">
-        <v>0.5212805177532418</v>
-      </c>
-      <c r="J14">
-        <v>0.4580474585233657</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>4.8398145</v>
-      </c>
-      <c r="N14">
-        <v>9.679629</v>
-      </c>
-      <c r="O14">
-        <v>0.6099383944911378</v>
-      </c>
-      <c r="P14">
-        <v>0.5555826661207054</v>
-      </c>
-      <c r="Q14">
-        <v>2.76696308807325</v>
-      </c>
-      <c r="R14">
-        <v>11.067852352293</v>
-      </c>
-      <c r="S14">
-        <v>0.3179490020779214</v>
-      </c>
-      <c r="T14">
-        <v>0.2544832282162248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.5717085</v>
-      </c>
-      <c r="H15">
-        <v>1.143417</v>
-      </c>
-      <c r="I15">
-        <v>0.5212805177532418</v>
-      </c>
-      <c r="J15">
-        <v>0.4580474585233657</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1.542474</v>
-      </c>
-      <c r="N15">
-        <v>3.084948</v>
-      </c>
-      <c r="O15">
-        <v>0.1943905319314043</v>
-      </c>
-      <c r="P15">
-        <v>0.1770670791911279</v>
-      </c>
-      <c r="Q15">
-        <v>0.881845496829</v>
-      </c>
-      <c r="R15">
-        <v>3.527381987316</v>
-      </c>
-      <c r="S15">
-        <v>0.1013319971315305</v>
-      </c>
-      <c r="T15">
-        <v>0.08110512561165166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.5717085</v>
-      </c>
-      <c r="H16">
-        <v>1.143417</v>
-      </c>
-      <c r="I16">
-        <v>0.5212805177532418</v>
-      </c>
-      <c r="J16">
-        <v>0.4580474585233657</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.542577333333333</v>
-      </c>
-      <c r="N16">
-        <v>4.627732</v>
-      </c>
-      <c r="O16">
-        <v>0.194403554531223</v>
-      </c>
-      <c r="P16">
-        <v>0.2656184118887309</v>
-      </c>
-      <c r="Q16">
-        <v>0.8819045733739999</v>
-      </c>
-      <c r="R16">
-        <v>5.291427440243999</v>
-      </c>
-      <c r="S16">
-        <v>0.1013387855591065</v>
-      </c>
-      <c r="T16">
-        <v>0.1216658385026457</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.5717085</v>
-      </c>
-      <c r="H17">
-        <v>1.143417</v>
-      </c>
-      <c r="I17">
-        <v>0.5212805177532418</v>
-      </c>
-      <c r="J17">
-        <v>0.4580474585233657</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.01005766666666667</v>
-      </c>
-      <c r="N17">
-        <v>0.030173</v>
-      </c>
-      <c r="O17">
-        <v>0.001267519046234871</v>
-      </c>
-      <c r="P17">
-        <v>0.001731842799435809</v>
-      </c>
-      <c r="Q17">
-        <v>0.0057500535235</v>
-      </c>
-      <c r="R17">
-        <v>0.034500321141</v>
-      </c>
-      <c r="S17">
-        <v>0.000660732984683409</v>
-      </c>
-      <c r="T17">
-        <v>0.0007932661928435634</v>
+        <v>0.02771250625010649</v>
       </c>
     </row>
   </sheetData>
